--- a/data/excelcases.xlsx
+++ b/data/excelcases.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"OK","data":{"id":2059766,"reg_name":"yh","mobile_phone":"13496438157"},"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+          <t>{"code":0,"msg":"OK","data":{"id":2059800,"reg_name":"yh","mobile_phone":"13406178359"},"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
         </is>
       </c>
     </row>

--- a/data/excelcases.xlsx
+++ b/data/excelcases.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"OK","data":{"id":2059800,"reg_name":"yh","mobile_phone":"13406178359"},"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+          <t>{"code":0,"msg":"OK","data":{"id":2065252,"reg_name":"yh","mobile_phone":"13416245978"},"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
         </is>
       </c>
     </row>
@@ -1007,8 +1007,8 @@
     <col customWidth="1" max="7" min="7" style="1" width="13.375"/>
     <col customWidth="1" max="8" min="8" style="1" width="13.625"/>
     <col customWidth="1" max="9" min="9" style="1" width="20.875"/>
-    <col customWidth="1" max="16" min="10" style="1" width="9"/>
-    <col customWidth="1" max="16384" min="17" style="1" width="9"/>
+    <col customWidth="1" max="17" min="10" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="18" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
